--- a/data/trans_dic/P43E-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Habitat-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1298421177053521</v>
+        <v>0.1320268219467903</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08662385049700713</v>
+        <v>0.08325405590471746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1029292818937263</v>
+        <v>0.1033555351724502</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2057598660112794</v>
+        <v>0.2116289920092184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1556352552207038</v>
+        <v>0.1551319492823982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1684421736940444</v>
+        <v>0.1715916747880763</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2134038062659399</v>
+        <v>0.2136402621783746</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1253905342872511</v>
+        <v>0.1260687273188009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1807937958435872</v>
+        <v>0.1790324371257071</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2834799468983139</v>
+        <v>0.2850062183577749</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1839808902006235</v>
+        <v>0.1811336990785961</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2447788068058401</v>
+        <v>0.2455913024890976</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2122995879751955</v>
+        <v>0.2133283713974526</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1459092196508646</v>
+        <v>0.1446582187742369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2685034720277291</v>
+        <v>0.268297402769827</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.293439334011204</v>
+        <v>0.2943028501240584</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2153624676237835</v>
+        <v>0.2135592710575417</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.354680834811752</v>
+        <v>0.355062454627535</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.1895144896535201</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2870748109716285</v>
+        <v>0.2870748109716284</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2010489593367253</v>
+        <v>0.2040596297964326</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1575042292935053</v>
+        <v>0.1595768854560641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2571298171597811</v>
+        <v>0.2526231200331925</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2682891232987136</v>
+        <v>0.2733101769609251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2216450116840055</v>
+        <v>0.2236016511549889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3237628669457622</v>
+        <v>0.3210660664396938</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.1639238534107192</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="19">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>55561</v>
+        <v>56496</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30214</v>
+        <v>29038</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29380</v>
+        <v>29501</v>
       </c>
     </row>
     <row r="7">
@@ -996,13 +996,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>88047</v>
+        <v>90559</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54284</v>
+        <v>54109</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48080</v>
+        <v>48979</v>
       </c>
     </row>
     <row r="8">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>139432</v>
+        <v>139587</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>79160</v>
+        <v>79589</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>76388</v>
+        <v>75644</v>
       </c>
     </row>
     <row r="11">
@@ -1068,13 +1068,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>185218</v>
+        <v>186215</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>116149</v>
+        <v>114352</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103423</v>
+        <v>103767</v>
       </c>
     </row>
     <row r="12">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>111292</v>
+        <v>111831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>72132</v>
+        <v>71514</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>99229</v>
+        <v>99153</v>
       </c>
     </row>
     <row r="15">
@@ -1140,13 +1140,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>153827</v>
+        <v>154279</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>106468</v>
+        <v>105576</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>131077</v>
+        <v>131218</v>
       </c>
     </row>
     <row r="16">
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>129379</v>
+        <v>131317</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>106978</v>
+        <v>108386</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>136792</v>
+        <v>134394</v>
       </c>
     </row>
     <row r="19">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>172650</v>
+        <v>175881</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>150543</v>
+        <v>151872</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>172241</v>
+        <v>170806</v>
       </c>
     </row>
     <row r="20">
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
     </row>
     <row r="23">
@@ -1284,13 +1284,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
     </row>
     <row r="24">
